--- a/Excel/New_Parameters.xlsx
+++ b/Excel/New_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\ARCS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A06370-BFA1-44A7-B946-10734ED943FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8E01F-3473-4EFD-AFD2-6CEA34D2DE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10785" yWindow="5970" windowWidth="11910" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/New_Parameters.xlsx
+++ b/Excel/New_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\ARCS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8E01F-3473-4EFD-AFD2-6CEA34D2DE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656D005-4515-4C32-8E0B-EB6F61B98307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="5970" windowWidth="11910" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="10650" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>W_innerDiameter</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
     <t>inner diameter of the wheel</t>
   </si>
   <si>
@@ -105,12 +102,6 @@
     <t>TempSpotReserved10</t>
   </si>
   <si>
-    <t>TempSpotReserved16</t>
-  </si>
-  <si>
-    <t>TempSpotReserved17</t>
-  </si>
-  <si>
     <t>TempSpotReserved18</t>
   </si>
   <si>
@@ -150,12 +141,6 @@
     <t>inner egar thickness</t>
   </si>
   <si>
-    <t>TempSpotReserved27</t>
-  </si>
-  <si>
-    <t>TempSpotReserved28</t>
-  </si>
-  <si>
     <t>TempSpotReserved29</t>
   </si>
   <si>
@@ -292,6 +277,21 @@
   </si>
   <si>
     <t>LE_offsetAboveOuterGear</t>
+  </si>
+  <si>
+    <t>OG_skirtOffset</t>
+  </si>
+  <si>
+    <t>OG_skirtThickness</t>
+  </si>
+  <si>
+    <t>IG_skirtOffset</t>
+  </si>
+  <si>
+    <t>IG_skirtThickness</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -762,135 +762,134 @@
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="6">
-        <f>10/1000</f>
-        <v>0.01</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8">
         <f>B6*2+B26</f>
-        <v>0.52</v>
+        <v>1.7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <f>B14+B47*2+B6*2</f>
-        <v>1.52</v>
+        <v>4.7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
@@ -899,72 +898,72 @@
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" s="8">
         <f>B15/B27</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>5</v>
@@ -972,62 +971,62 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B19" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B20" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
@@ -1036,55 +1035,55 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25" s="8">
         <f>B15/2+B27/2</f>
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" s="6">
         <v>5</v>
@@ -1093,84 +1092,84 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" s="6">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -1179,135 +1178,136 @@
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B36" s="6">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B37" s="9">
         <f>B25*SQRT(2*(1-COS(RADIANS(360/B28))))-B36*5/9</f>
-        <v>3.6978300993806452</v>
+        <v>10.644593934738353</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0.75</v>
+        <v>68</v>
+      </c>
+      <c r="B38" s="8">
+        <f>B36</f>
+        <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B39" s="6">
         <v>0</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -1316,120 +1316,120 @@
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B47" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B54" s="6">
         <v>0</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B55" s="6">
         <v>0</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/New_Parameters.xlsx
+++ b/Excel/New_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\ARCS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656D005-4515-4C32-8E0B-EB6F61B98307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156369C6-58F5-4DB5-ABD2-CD2C917A580D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="10650" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="3015" windowWidth="11010" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Equation</t>
   </si>
@@ -102,15 +102,6 @@
     <t>TempSpotReserved10</t>
   </si>
   <si>
-    <t>TempSpotReserved18</t>
-  </si>
-  <si>
-    <t>TempSpotReserved19</t>
-  </si>
-  <si>
-    <t>TempSpotReserved20</t>
-  </si>
-  <si>
     <t>Inner_Gear_Related_IG_</t>
   </si>
   <si>
@@ -292,6 +283,18 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>IG_extentionLength</t>
+  </si>
+  <si>
+    <t>IG_extentionThickness</t>
+  </si>
+  <si>
+    <t>IG_slitWidth</t>
+  </si>
+  <si>
+    <t>IG_slitlength</t>
   </si>
 </sst>
 </file>
@@ -715,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -776,10 +779,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
@@ -793,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
@@ -807,7 +810,7 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>14</v>
@@ -818,11 +821,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <f>B6*2+B26</f>
+        <f>B6*2+B27</f>
         <v>1.7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
@@ -833,11 +836,11 @@
         <v>17</v>
       </c>
       <c r="B8" s="8">
-        <f>B14+B47*2+B6*2</f>
+        <f>B14+B48*2+B6*2</f>
         <v>4.7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>18</v>
@@ -851,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
@@ -898,71 +901,71 @@
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <v>2.5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6">
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="8">
-        <f>B15/B27</f>
+        <f>B15/B28</f>
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -971,465 +974,476 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6">
         <v>1.5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" s="6">
         <v>0.5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B21" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="8">
-        <f>B15/2+B27/2</f>
-        <v>10</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>47</v>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="B26" s="8">
+        <f>B15/2+B28/2</f>
+        <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
+        <v>83</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="6">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>65</v>
+      <c r="D36" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="9">
-        <f>B25*SQRT(2*(1-COS(RADIANS(360/B28))))-B36*5/9</f>
-        <v>10.644593934738353</v>
+        <v>61</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="8">
-        <f>B36</f>
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="B38" s="9">
+        <f>B26*SQRT(2*(1-COS(RADIANS(360/B29))))-B37*5/9</f>
+        <v>10.644593934738353</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="6">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B39" s="8">
+        <f>B37</f>
+        <v>2</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>75</v>
+      <c r="D47" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54" s="6">
         <v>0</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B55" s="6">
         <v>0</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/New_Parameters.xlsx
+++ b/Excel/New_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\ARCS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156369C6-58F5-4DB5-ABD2-CD2C917A580D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954CF09-76AC-4FEF-9512-80BE4CA57848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="3015" windowWidth="11010" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>Equation</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>IG_slitlength</t>
+  </si>
+  <si>
+    <t>IG_slitClearance</t>
   </si>
 </sst>
 </file>
@@ -718,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>83</v>
@@ -821,8 +824,8 @@
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <f>B6*2+B27</f>
-        <v>1.7</v>
+        <f>B6*2+B28</f>
+        <v>2.1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>83</v>
@@ -836,8 +839,8 @@
         <v>17</v>
       </c>
       <c r="B8" s="8">
-        <f>B14+B48*2+B6*2</f>
-        <v>4.7</v>
+        <f>B14+B49*2+B6*2</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>83</v>
@@ -937,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>83</v>
@@ -965,7 +968,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="8">
-        <f>B15/B28</f>
+        <f>B15/B29</f>
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1018,10 +1021,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B23" s="6">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>83</v>
@@ -1029,117 +1032,114 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="8">
-        <f>B15/2+B28/2</f>
-        <v>10</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="B27" s="8">
+        <f>B15/2+B29/2</f>
+        <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6">
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>52</v>
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -1147,10 +1147,13 @@
       <c r="C32" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="D32" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -1161,10 +1164,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>83</v>
@@ -1172,101 +1175,101 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="6">
-        <v>2</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="9">
-        <f>B26*SQRT(2*(1-COS(RADIANS(360/B29))))-B37*5/9</f>
-        <v>10.644593934738353</v>
+        <v>61</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="8">
-        <f>B37</f>
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="B39" s="9">
+        <f>B27*SQRT(2*(1-COS(RADIANS(360/B30))))-B38*5/9</f>
+        <v>10.644593934738353</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B40" s="8">
+        <f>B38</f>
+        <v>2</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -1310,139 +1313,150 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="6">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B49" s="6">
         <v>1</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="6">
-        <v>0</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="6">
-        <v>0</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="6">
-        <v>0</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" s="6">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="6">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="6">
-        <v>0</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" s="6">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="6">
-        <v>0</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" s="6">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="6">
-        <v>0</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" s="6">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="6">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="6">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Excel/New_Parameters.xlsx
+++ b/Excel/New_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\ARCS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954CF09-76AC-4FEF-9512-80BE4CA57848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE5BCA-CDD3-475A-9208-A8D257236594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="3090" windowWidth="10725" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>Equation</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>IG_slitClearance</t>
+  </si>
+  <si>
+    <t>IG_slitDistanceFromCenterHole</t>
   </si>
 </sst>
 </file>
@@ -721,15 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
@@ -768,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>83</v>
@@ -796,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>83</v>
@@ -824,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <f>B6*2+B28</f>
+        <f>B6*2+B29</f>
         <v>2.1</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -839,8 +842,8 @@
         <v>17</v>
       </c>
       <c r="B8" s="8">
-        <f>B14+B49*2+B6*2</f>
-        <v>5.0999999999999996</v>
+        <f>B14+B50*2+B6*2</f>
+        <v>10.1</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>83</v>
@@ -912,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="6">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>83</v>
@@ -926,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>83</v>
@@ -954,7 +957,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>83</v>
@@ -968,8 +971,8 @@
         <v>68</v>
       </c>
       <c r="B18" s="8">
-        <f>B15/B29</f>
-        <v>1</v>
+        <f>B15/B30</f>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>5</v>
@@ -980,7 +983,7 @@
         <v>81</v>
       </c>
       <c r="B19" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>83</v>
@@ -991,7 +994,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>83</v>
@@ -1013,7 +1016,7 @@
         <v>85</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>83</v>
@@ -1024,7 +1027,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>83</v>
@@ -1032,10 +1035,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B24" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>83</v>
@@ -1043,117 +1046,114 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="8">
-        <f>B15/2+B29/2</f>
-        <v>10</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="B28" s="8">
+        <f>B15/2+B30/2</f>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="6">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6">
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>52</v>
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -1161,10 +1161,13 @@
       <c r="C33" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -1175,10 +1178,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>83</v>
@@ -1186,101 +1189,101 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="6">
-        <v>2</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="9">
-        <f>B27*SQRT(2*(1-COS(RADIANS(360/B30))))-B38*5/9</f>
-        <v>10.644593934738353</v>
+        <v>61</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="8">
-        <f>B38</f>
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="B40" s="9">
+        <f>B28*SQRT(2*(1-COS(RADIANS(360/B31))))-B39*5/9</f>
+        <v>16.522446457663083</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B41" s="8">
+        <f>B39</f>
+        <v>2</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -1302,7 +1305,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -1313,7 +1316,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -1324,57 +1327,57 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="6">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="5">
-        <v>0</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="6">
         <v>0</v>
@@ -1418,7 +1421,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B55" s="6">
         <v>0</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -1440,7 +1443,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
@@ -1451,12 +1454,23 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="6">
-        <v>0</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="B59" s="6">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Excel/New_Parameters.xlsx
+++ b/Excel/New_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\ARCS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DC8FD-D6D1-441C-8927-15FDB1730AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC415E00-E576-4141-B9ED-4D2CC0878352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="3855" windowWidth="14040" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t>Equation</t>
   </si>
@@ -255,21 +255,9 @@
     <t xml:space="preserve">width of the slit </t>
   </si>
   <si>
-    <t>Reserved_7</t>
-  </si>
-  <si>
-    <t>Reserved_8</t>
-  </si>
-  <si>
-    <t>Reserved_9</t>
-  </si>
-  <si>
     <t>Reserved_10</t>
   </si>
   <si>
-    <t>Reserved_11</t>
-  </si>
-  <si>
     <t>Reserved_12</t>
   </si>
   <si>
@@ -352,6 +340,21 @@
   </si>
   <si>
     <t>Block's depth</t>
+  </si>
+  <si>
+    <t>W_filletRadius</t>
+  </si>
+  <si>
+    <t>W_numberOfSlits</t>
+  </si>
+  <si>
+    <t>W_extrutsionTaperAngle</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>OG_protrudeDistance</t>
   </si>
 </sst>
 </file>
@@ -794,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,8 +906,8 @@
         <v>15</v>
       </c>
       <c r="B7" s="7">
-        <f>B6*2+B31</f>
-        <v>5.6</v>
+        <f>B6+B31</f>
+        <v>5.3</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>59</v>
@@ -930,10 +933,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>59</v>
@@ -941,29 +944,29 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -1057,7 +1060,7 @@
         <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E18" s="10">
         <f>B19+B20+B22</f>
@@ -1140,7 +1143,7 @@
         <v>64</v>
       </c>
       <c r="B24" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>59</v>
@@ -1303,10 +1306,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B36" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>59</v>
@@ -1314,7 +1317,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -1402,7 +1405,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -1446,7 +1449,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
@@ -1457,7 +1460,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -1468,7 +1471,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -1500,7 +1503,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -1533,7 +1536,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -1553,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E55" s="4">
         <f>COUNTA(A56:A63)</f>
@@ -1562,37 +1565,37 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B56" s="7">
         <f>B25-B24</f>
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" s="7">
         <f>B26-B24</f>
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B58" s="5">
         <v>10</v>
@@ -1601,12 +1604,12 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B62" s="5">
         <v>0</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
